--- a/AccessibleDashboardData/2021-10-28.xlsx
+++ b/AccessibleDashboardData/2021-10-28.xlsx
@@ -13762,7 +13762,7 @@
         <v>870</v>
       </c>
       <c r="B576">
-        <v>3820</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="577" spans="1:1">
@@ -49038,7 +49038,7 @@
         <v>1711</v>
       </c>
       <c r="B4">
-        <v>3820</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -49046,7 +49046,7 @@
         <v>1712</v>
       </c>
       <c r="B5">
-        <v>2302</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="6" spans="1:2">
